--- a/input/丝路228.xlsx
+++ b/input/丝路228.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/PycharmProjects/pythonProject/order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/PycharmProjects/order/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6709828A-29F4-0948-AA1D-8FF8C18641B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD857E-AB57-394D-836A-057CDDEF858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29660" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
